--- a/routes/products.xlsx
+++ b/routes/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\web\bongsan\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\Web\bongsan\bongsan_full\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>product_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,7 +518,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -620,16 +620,16 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>150000</v>
+        <v>90000</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>90000</v>
+        <v>120000</v>
       </c>
       <c r="D7">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -654,16 +654,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="D8">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>150000</v>
@@ -680,7 +680,7 @@
         <v>100000</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/routes/products.xlsx
+++ b/routes/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\Web\bongsan\bongsan_full\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\web\bongsan\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
   <si>
     <t>product_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,137 +54,183 @@
     <t>3단 축하쌀화환 10만원</t>
   </si>
   <si>
-    <t>/products/category1_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category1_product2_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category1_product3_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category1_product4_img.jpg</t>
+    <t>3단 근조화환 6만원</t>
+  </si>
+  <si>
+    <t>3단 근조화환 8만원</t>
+  </si>
+  <si>
+    <t>3단 근조화환 10만원</t>
+  </si>
+  <si>
+    <t>관엽 5만원</t>
+  </si>
+  <si>
+    <t>관엽 10만원</t>
+  </si>
+  <si>
+    <t>관엽 15만원</t>
+  </si>
+  <si>
+    <t>금전수 5만원</t>
+  </si>
+  <si>
+    <t>관엽 6만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양란 10만원</t>
+  </si>
+  <si>
+    <t>서양란 10만원</t>
+  </si>
+  <si>
+    <t>꽃다발 3만원</t>
+  </si>
+  <si>
+    <t>꽃다발 5만원</t>
+  </si>
+  <si>
+    <t>꽃다발 10만원</t>
+  </si>
+  <si>
+    <t>꽃다발 20만원</t>
+  </si>
+  <si>
+    <t>꽃바구니 7만원</t>
+  </si>
+  <si>
+    <t>꽃바구니 장미 50송이</t>
+  </si>
+  <si>
+    <t>꽃목걸이 10만원</t>
+  </si>
+  <si>
+    <t>product_mainImgSrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2단 근조화환(장구) 10만원</t>
-  </si>
-  <si>
-    <t>3단 근조화환 6만원</t>
-  </si>
-  <si>
-    <t>3단 근조화환 8만원</t>
-  </si>
-  <si>
-    <t>3단 근조화환 10만원</t>
-  </si>
-  <si>
-    <t>/products/category2_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category2_product2_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category2_product3_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category2_product4_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category3_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category3_product3_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category3_product4_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category3_product5_img.jpg</t>
-  </si>
-  <si>
-    <t>관엽 5만원</t>
-  </si>
-  <si>
-    <t>관엽 10만원</t>
-  </si>
-  <si>
-    <t>관엽 15만원</t>
-  </si>
-  <si>
-    <t>금전수 5만원</t>
-  </si>
-  <si>
-    <t>관엽 6만원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동양란 10만원</t>
-  </si>
-  <si>
-    <t>서양란 10만원</t>
-  </si>
-  <si>
-    <t>/products/category4_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category5_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃다발 3만원</t>
-  </si>
-  <si>
-    <t>꽃다발 5만원</t>
-  </si>
-  <si>
-    <t>꽃다발 10만원</t>
-  </si>
-  <si>
-    <t>꽃다발 20만원</t>
-  </si>
-  <si>
-    <t>/products/category7_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category7_product2_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category7_product3_img.jpg</t>
-  </si>
-  <si>
-    <t>/products/category7_product4_img.jpg</t>
-  </si>
-  <si>
-    <t>꽃바구니 7만원</t>
-  </si>
-  <si>
-    <t>꽃바구니 장미 50송이</t>
-  </si>
-  <si>
-    <t>/products/category8_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category8_product2_img.jpg</t>
-  </si>
-  <si>
-    <t>꽃목걸이 10만원</t>
-  </si>
-  <si>
-    <t>/products/category9_product1_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>product_mainImgSrc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/products/category3_product2_img.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축하화환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근조화환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동양란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양란</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃다발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃바구니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행사용상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category1_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category2_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category3_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category3_product2_img.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category3_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category3_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category3_product5_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category4_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category5_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category7_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category7_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category7_product3_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category7_product4_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category8_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category8_product2_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category9_product1_img.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -544,12 +590,12 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -561,12 +607,12 @@
         <v>60000</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -578,12 +624,12 @@
         <v>80000</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -595,12 +641,12 @@
         <v>100000</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -612,15 +658,15 @@
         <v>100000</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
+      <c r="A6" t="s">
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>90000</v>
@@ -629,15 +675,15 @@
         <v>60000</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>120000</v>
@@ -646,15 +692,15 @@
         <v>80000</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
+      <c r="A8" t="s">
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>150000</v>
@@ -663,15 +709,15 @@
         <v>100000</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>150000</v>
@@ -680,15 +726,15 @@
         <v>100000</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>60000</v>
@@ -697,15 +743,15 @@
         <v>50000</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3</v>
+      <c r="A11" t="s">
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>70000</v>
@@ -714,15 +760,15 @@
         <v>60000</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
+      <c r="A12" t="s">
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>120000</v>
@@ -731,15 +777,15 @@
         <v>100000</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>180000</v>
@@ -748,15 +794,15 @@
         <v>150000</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
+      <c r="A14" t="s">
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>60000</v>
@@ -765,15 +811,15 @@
         <v>50000</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>4</v>
+      <c r="A15" t="s">
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>120000</v>
@@ -782,15 +828,15 @@
         <v>100000</v>
       </c>
       <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>5</v>
-      </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>120000</v>
@@ -799,15 +845,15 @@
         <v>100000</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>7</v>
-      </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>40000</v>
@@ -816,15 +862,15 @@
         <v>30000</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>7</v>
+      <c r="A18" t="s">
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>60000</v>
@@ -833,15 +879,15 @@
         <v>50000</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>7</v>
+      <c r="A19" t="s">
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>120000</v>
@@ -850,15 +896,15 @@
         <v>100000</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>7</v>
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>240000</v>
@@ -867,15 +913,15 @@
         <v>200000</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>8</v>
+      <c r="A21" t="s">
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>90000</v>
@@ -884,15 +930,15 @@
         <v>70000</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>8</v>
+      <c r="A22" t="s">
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>250000</v>
@@ -901,15 +947,15 @@
         <v>200000</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>9</v>
+      <c r="A23" t="s">
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>150000</v>
@@ -918,7 +964,7 @@
         <v>100000</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/routes/products.xlsx
+++ b/routes/products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\web\bongsan\routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Desktop\Web\bongsan\bongsan_full\routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20910" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>product_category</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,21 @@
   </si>
   <si>
     <t>category9_product1_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category9_product2_img.jpg</t>
+  </si>
+  <si>
+    <t>수반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코사지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category9_product3_img.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -561,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -967,6 +982,40 @@
         <v>56</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
